--- a/KPN_global_pvalues_gender_categorized_merged_allabx.xlsx
+++ b/KPN_global_pvalues_gender_categorized_merged_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -914,6 +914,66 @@
         <v>3.207363707145692e-08</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>8.904653999482134e-07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Specimen_type</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>7.953466886058472e-06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>5.429345858914697e-11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hospital:Ward_ED_ICU</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>1.862655002196334e-08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KPN_global_pvalues_gender_categorized_merged_allabx.xlsx
+++ b/KPN_global_pvalues_gender_categorized_merged_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -974,6 +974,66 @@
         <v>1.862655002196334e-08</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>1.367286867747675e-25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Specimen_type</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>7.481013117150814e-07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>0.003250545772315636</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hospital:Ward_ED_ICU</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>6.377440382755414e-10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
